--- a/tester/fd.xlsx
+++ b/tester/fd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formacion\Barcelona42\cursus\minishell\tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FD3956-4ABF-4DCE-BE40-71292D526D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DC824B-D022-4773-8F8C-CA7F81FD6C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{AE4E1BAE-D2BD-4BB3-9402-B110ED6D5174}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="16">
   <si>
     <t>proc I</t>
   </si>
@@ -449,7 +449,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,10 +779,10 @@
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -798,6 +798,34 @@
       </c>
       <c r="J8" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -826,6 +854,9 @@
       <c r="H13" t="s">
         <v>4</v>
       </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -841,6 +872,9 @@
       <c r="H14" t="s">
         <v>5</v>
       </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
@@ -852,6 +886,9 @@
       <c r="H15" t="s">
         <v>6</v>
       </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
@@ -863,8 +900,11 @@
       <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +914,11 @@
       <c r="H17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -885,8 +928,11 @@
       <c r="H18" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>10</v>
       </c>
@@ -896,14 +942,35 @@
       <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/tester/fd.xlsx
+++ b/tester/fd.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="46">
   <si>
     <t xml:space="preserve">proc I</t>
   </si>
@@ -83,10 +83,13 @@
     <t xml:space="preserve">ejecutar</t>
   </si>
   <si>
-    <t xml:space="preserve">fd[i] WRITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fd[i-1]read / fd[i]WRI</t>
+    <t xml:space="preserve">fd[NP] WRITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd[NP-1]read / fd[NP]WRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD[NP -1]READ</t>
   </si>
   <si>
     <t xml:space="preserve">Cerrar</t>
@@ -95,13 +98,28 @@
     <t xml:space="preserve">todos excepto ejecucion</t>
   </si>
   <si>
-    <t xml:space="preserve">fd[i]read / resto fd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fd[-i]read</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fd[i]write</t>
+    <t xml:space="preserve">fd[NP]read / resto fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP -1 procesos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd[NP-1]read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD[NP-1]Write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd[NP]write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP = 2</t>
   </si>
   <si>
     <t xml:space="preserve">FD[2][R]</t>
@@ -110,34 +128,37 @@
     <t xml:space="preserve">FD[2][W]</t>
   </si>
   <si>
+    <t xml:space="preserve">NP = 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">pipe</t>
   </si>
   <si>
-    <t xml:space="preserve">fd[np] WRITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fd[np-1]read / fd[np]WRI</t>
-  </si>
-  <si>
     <t xml:space="preserve">np</t>
   </si>
   <si>
     <t xml:space="preserve">numero procesos</t>
   </si>
   <si>
-    <t xml:space="preserve">fd[np]read / resto fd</t>
-  </si>
-  <si>
     <t xml:space="preserve">pipes</t>
   </si>
   <si>
     <t xml:space="preserve">Np  - 1</t>
   </si>
   <si>
-    <t xml:space="preserve">fd[np -1]read</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fd[np]write</t>
+    <t xml:space="preserve">fd[NP]read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd[NP]read / </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP -1 Fds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP -1 fds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD[NP-1]Read</t>
   </si>
 </sst>
 </file>
@@ -335,20 +356,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,19 +601,26 @@
       <c r="F22" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="H22" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="4" t="s">
         <v>14</v>
@@ -611,12 +639,26 @@
         <v>20</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -635,20 +677,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.71"/>
   </cols>
@@ -775,35 +817,47 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -924,128 +978,164 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M31" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N31" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="0" t="s">
-        <v>38</v>
+      <c r="F40" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
